--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_251.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_251.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,322 +488,333 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(10.2, 18.84)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(18.3, 21.32)]</t>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:57.680000', '0:01:59.480000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4038461538461539</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['B', 'E', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[('0:00:19.602494', '0:00:27.450839')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:55.680000', '0:01:06.100000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86), (0.78, 5.98)]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (13.98, 21.5)]</t>
+          <t>[('0:00:10.940000', '0:00:16.320000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:33.920000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[('0:04:05.420000', '0:04:23.440000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:20.420000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1231527093596059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E', 'D', 'A']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(2.537346, 8.504874)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(89.915646, 97.020952)]</t>
+          <t>[('0:00:27.600000', '0:00:47.440000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0882943143812709</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['F', 'F/7', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.22, 21.94)]</t>
+          <t>[['F:maj', 'F:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(1.64, 23.8)]</t>
+          <t>[('0:00:15.300272', '0:00:18.887755')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:07.580000', '0:00:14.880000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07307692307692308</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3676470588235294</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(16.92, 23.9)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
+          <t>[('0:00:55.180000', '0:01:05.560000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>[('0:00:06.415079', '0:00:16.608639')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -806,399 +822,350 @@
           <t>schubert-winterreise_94</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>0.06153846153846154</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(30.24, 38.5), (84.62, 91.74)]</t>
+          <t>[('0:00:30.240000', '0:00:38.500000'), ('0:01:24.620000', '0:01:31.740000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:01:30.780000', '0:01:41.320000'), ('0:00:41.580000', '0:00:43.480000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:55.820000', '0:01:01.680000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:57.520000', '0:01:03.420000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3980769230769231</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (50.58, 59.48), (0.36, 5.0)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82), (36.52, 38.28), (9.26, 13.9)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(9.6, 25.04)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(3.32, 8.68)]</t>
+          <t>[('0:00:08.460000', '0:00:13.460000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E', 'E/7', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(10.501791, 15.122562)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(8.72, 15.88)]</t>
+          <t>[('0:00:11.760000', '0:00:15.640000'), ('0:00:20.540000', '0:00:23.160000'), ('0:00:16.240000', '0:00:17.660000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:12.400000', '0:00:16.560000'), ('0:00:21.880000', '0:00:24.860000'), ('0:00:17.200000', '0:00:18.680000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.08684863523573201</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(27.36, 34.92)]</t>
+          <t>[('0:00:14.460000', '0:00:19.040000'), ('0:00:24.660000', '0:00:27.760000'), ('0:00:19.700000', '0:00:21.360000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:11.760000', '0:00:15.640000'), ('0:00:20.540000', '0:00:23.160000'), ('0:00:16.240000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.09855072463768116</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C#:dim7', 'D:maj', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:dim7', 'C', 'F']]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(16.42, 19.36)]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(17.769637, 22.996281)]</t>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
-        </is>
-      </c>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(4.76, 118.78)]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(6.3, 113.78)]</t>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(107.1, 111.48)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(112.24, 117.7)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
